--- a/reports/resnet18_23_no_MMTM/prediction/6/prediction_val_6.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/6/prediction_val_6.xlsx
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
